--- a/medicine/Psychotrope/Ratsherrn_Brauerei/Ratsherrn_Brauerei.xlsx
+++ b/medicine/Psychotrope/Ratsherrn_Brauerei/Ratsherrn_Brauerei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Ratsherrn Brauerei est une brasserie à Hambourg, dans le Land de Hambourg. Elle existe sous sa forme actuelle dans le quartier de Sternschanze depuis 2012. La première brasserie construite en 1869 de Schanzenhöfe est rénovée et maintenant classée.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque Ratsherrn est créée à l'origine par l'Elbschloss-Brauerei en 1952. La marque passe à la Bavaria-St. Pauli-Brauerei, à la Holsten-Brauerei et en 2005 au groupe d'entreprises Nordmann dans le cadre de plusieurs acquisitions.
 À partir de 2010, la Ratsherrn Pils est brassé à nouveau, temporairement à Flensbourg et Stralsund, puis à Hambourg. Environ 33 spécialités de bière sont produites en 2016. En plus des pils, il y a d'autres bières à fermentation basse telles que la bière rousse, la lager et la Zwickelbier ainsi que des bières de fermentation haute, comme la Belgian White Ale "Moby Wit" ou la Oat White IPA "Sailor's Swallow". De plus, des bières saisonnières sont produites à plusieurs reprises dans la "Micro"-brasserie, qui ouvre ses portes en 2014, avec ses trois réservoirs à un brassage de 50 hl pour le brassage de bières spéciales.
